--- a/data/statistical/filled_NaN_xlsx/云南省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/云南省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>40.4116</v>
       </c>
       <c r="E2">
-        <v>1461.857142239809</v>
+        <v>1461.857142686844</v>
       </c>
       <c r="F2">
         <v>5827.92</v>
@@ -609,85 +609,85 @@
         <v>10.6</v>
       </c>
       <c r="H2">
-        <v>36.28022140409971</v>
+        <v>47.49744724985986</v>
       </c>
       <c r="I2">
-        <v>4.029772961723211</v>
+        <v>4.02977296185054</v>
       </c>
       <c r="J2">
-        <v>100.5034955739975</v>
+        <v>100.5034955367446</v>
       </c>
       <c r="K2">
-        <v>28.81891925807577</v>
+        <v>28.81891925737727</v>
       </c>
       <c r="L2">
-        <v>1.336839968289496</v>
+        <v>1.336839968351342</v>
       </c>
       <c r="M2">
-        <v>190.3640822751913</v>
+        <v>190.3640822716989</v>
       </c>
       <c r="N2">
-        <v>228.1598039134406</v>
+        <v>228.159803903196</v>
       </c>
       <c r="O2">
-        <v>29.01183822425082</v>
+        <v>29.01183822471648</v>
       </c>
       <c r="P2">
-        <v>14175.98238215986</v>
+        <v>12355.23745570361</v>
       </c>
       <c r="Q2">
-        <v>99.55709966593813</v>
+        <v>98.51824092702979</v>
       </c>
       <c r="R2">
-        <v>23.71180339623243</v>
+        <v>23.71180339343846</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-45827.7435131073</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.2978241758610238</v>
+        <v>0.2978241758100921</v>
       </c>
       <c r="V2">
-        <v>49.39333333703689</v>
+        <v>49.39333333855029</v>
       </c>
       <c r="W2">
-        <v>66.97883516471484</v>
+        <v>66.97883516497677</v>
       </c>
       <c r="X2">
-        <v>3121.21630878195</v>
+        <v>3500.895790081699</v>
       </c>
       <c r="Y2">
-        <v>60.39646153893318</v>
+        <v>60.39646153908052</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-57468.71704101562</v>
       </c>
       <c r="AA2">
-        <v>8.174825186695671</v>
+        <v>171.9379488508058</v>
       </c>
       <c r="AB2">
-        <v>811679.304107666</v>
+        <v>926630.983127594</v>
       </c>
       <c r="AC2">
-        <v>463040.047492981</v>
+        <v>952987.2873916626</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-604.3409096598625</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>23905.78252065182</v>
       </c>
       <c r="AF2">
-        <v>345.1216024008468</v>
+        <v>9574.922378450632</v>
       </c>
       <c r="AG2">
-        <v>1284.532861058824</v>
+        <v>-47518.6089322567</v>
       </c>
       <c r="AH2">
-        <v>61373.08480095863</v>
+        <v>167770.3752089412</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H3">
-        <v>37.95391219076444</v>
+        <v>47.70134841502986</v>
       </c>
       <c r="I3">
         <v>3.5</v>
       </c>
       <c r="J3">
-        <v>77.61963928118348</v>
+        <v>77.61963924951851</v>
       </c>
       <c r="K3">
         <v>26.2126274442297</v>
@@ -743,7 +743,7 @@
         <v>99.94</v>
       </c>
       <c r="R3">
-        <v>19.73397058085538</v>
+        <v>19.73397057782859</v>
       </c>
       <c r="S3">
         <v>46412</v>
@@ -764,34 +764,34 @@
         <v>3356</v>
       </c>
       <c r="Y3">
-        <v>61.56764835203194</v>
+        <v>61.56764835214926</v>
       </c>
       <c r="Z3">
-        <v>58725.65202331543</v>
+        <v>58725.65190505981</v>
       </c>
       <c r="AA3">
-        <v>12.1958042060578</v>
+        <v>169.5026263718439</v>
       </c>
       <c r="AB3">
-        <v>688670.4075927734</v>
+        <v>831771.2498817444</v>
       </c>
       <c r="AC3">
-        <v>393310.6946792603</v>
+        <v>844611.549571991</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-734.4283223152161</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>20185.10559654236</v>
       </c>
       <c r="AF3">
-        <v>-2647.087572896184</v>
+        <v>8431.440244913101</v>
       </c>
       <c r="AG3">
-        <v>2426.806707843892</v>
+        <v>-40354.84564340115</v>
       </c>
       <c r="AH3">
-        <v>52824.55018305779</v>
+        <v>167389.6297241839</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>49.61270226858753</v>
+        <v>45.35145683077833</v>
       </c>
       <c r="I4">
         <v>4.3</v>
       </c>
       <c r="J4">
-        <v>60.99730994924903</v>
+        <v>60.997309923172</v>
       </c>
       <c r="K4">
         <v>22.0642393840184</v>
@@ -847,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="R4">
-        <v>16.29499999433756</v>
+        <v>16.2949999908451</v>
       </c>
       <c r="S4">
         <v>49583.1</v>
@@ -868,34 +868,34 @@
         <v>667</v>
       </c>
       <c r="Y4">
-        <v>62.74268131898498</v>
+        <v>62.7426813190732</v>
       </c>
       <c r="Z4">
         <v>228184</v>
       </c>
       <c r="AA4">
-        <v>16.1688311775506</v>
+        <v>184.5615998518381</v>
       </c>
       <c r="AB4">
-        <v>576254.9937019348</v>
+        <v>749629.2269706726</v>
       </c>
       <c r="AC4">
-        <v>330060.021736145</v>
+        <v>751972.7877807617</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-791.2634871304035</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>16793.41069054604</v>
       </c>
       <c r="AF4">
-        <v>6681.632341711666</v>
+        <v>7359.47905626893</v>
       </c>
       <c r="AG4">
-        <v>2314.708932851824</v>
+        <v>-33681.79808878899</v>
       </c>
       <c r="AH4">
-        <v>45076.61211895943</v>
+        <v>152056.6886357219</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.2</v>
       </c>
       <c r="J5">
-        <v>50.63650758378208</v>
+        <v>50.6365075558424</v>
       </c>
       <c r="K5">
         <v>22.6196150479673</v>
@@ -972,34 +972,34 @@
         <v>3534</v>
       </c>
       <c r="Y5">
-        <v>63.92156043979139</v>
+        <v>63.92156043985597</v>
       </c>
       <c r="Z5">
         <v>207923</v>
       </c>
       <c r="AA5">
-        <v>20.09390610120317</v>
+        <v>179.0672711743014</v>
       </c>
       <c r="AB5">
-        <v>474433.0624275208</v>
+        <v>680204.9144058228</v>
       </c>
       <c r="AC5">
-        <v>273288.0286636353</v>
+        <v>675071.0020217896</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-774.8464042544365</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>13730.69780290127</v>
       </c>
       <c r="AF5">
-        <v>553.6775497970452</v>
+        <v>6359.038812458515</v>
       </c>
       <c r="AG5">
-        <v>1434.40951421863</v>
+        <v>-27499.46626877785</v>
       </c>
       <c r="AH5">
-        <v>38129.27060890198</v>
+        <v>224292.7187116982</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>3257</v>
       </c>
       <c r="Y6">
-        <v>65.10428571445209</v>
+        <v>65.10428571449575</v>
       </c>
       <c r="Z6">
         <v>157994</v>
       </c>
       <c r="AA6">
-        <v>23.97102897701552</v>
+        <v>149.9297800445733</v>
       </c>
       <c r="AB6">
-        <v>383204.6137695312</v>
+        <v>623498.3121910095</v>
       </c>
       <c r="AC6">
-        <v>222994.7154636383</v>
+        <v>613906.1922874451</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-685.1770735383034</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>10996.96693301201</v>
       </c>
       <c r="AF6">
-        <v>3887.893721392036</v>
+        <v>5430.11951354146</v>
       </c>
       <c r="AG6">
-        <v>1655.737054357584</v>
+        <v>-21807.85018324852</v>
       </c>
       <c r="AH6">
-        <v>31982.52565217018</v>
+        <v>192618.3070761694</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>319223</v>
       </c>
       <c r="AA7">
-        <v>27.80019980498764</v>
+        <v>180.9023590618739</v>
       </c>
       <c r="AB7">
-        <v>302569.6477355957</v>
+        <v>579509.4203147888</v>
       </c>
       <c r="AC7">
-        <v>179180.0821342468</v>
+        <v>568478.3585853577</v>
       </c>
       <c r="AD7">
-        <v>26.12962044775486</v>
+        <v>-522.2554951310158</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>8592.218081235886</v>
       </c>
       <c r="AF7">
-        <v>-558.5805449514169</v>
+        <v>4572.721159547567</v>
       </c>
       <c r="AG7">
-        <v>1449.769363203795</v>
+        <v>-16606.94983184338</v>
       </c>
       <c r="AH7">
-        <v>26636.37724900246</v>
+        <v>118000.396476867</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>566135</v>
       </c>
       <c r="AA8">
-        <v>31.58141858516319</v>
+        <v>139.0567419932293</v>
       </c>
       <c r="AB8">
-        <v>232528.1643218994</v>
+        <v>548238.2387771606</v>
       </c>
       <c r="AC8">
-        <v>141844.1286773682</v>
+        <v>538787.5009078979</v>
       </c>
       <c r="AD8">
-        <v>110.885864187032</v>
+        <v>-286.0816689133644</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>6516.451247572899</v>
       </c>
       <c r="AF8">
-        <v>5789.402198748096</v>
+        <v>3786.843750327826</v>
       </c>
       <c r="AG8">
-        <v>1941.230220258226</v>
+        <v>-11896.76521515846</v>
       </c>
       <c r="AH8">
-        <v>22090.82539963722</v>
+        <v>153275.0921487791</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>713478</v>
       </c>
       <c r="AA9">
-        <v>35.31468531746941</v>
+        <v>152.4141803367265</v>
       </c>
       <c r="AB9">
-        <v>173080.1635246277</v>
+        <v>529684.7675857544</v>
       </c>
       <c r="AC9">
-        <v>110986.855091095</v>
+        <v>524833.6192626953</v>
       </c>
       <c r="AD9">
-        <v>200.0472028348595</v>
+        <v>23.34440505504608</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>4769.666432261467</v>
       </c>
       <c r="AF9">
-        <v>9590.264369812661</v>
+        <v>3072.487286001444</v>
       </c>
       <c r="AG9">
-        <v>1113.371098889247</v>
+        <v>-7677.296332836151</v>
       </c>
       <c r="AH9">
-        <v>18345.87010383606</v>
+        <v>211018.5707533342</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>661500</v>
       </c>
       <c r="AA10">
-        <v>39.00000000194996</v>
+        <v>169.8740574896919</v>
       </c>
       <c r="AB10">
-        <v>124225.6453475952</v>
+        <v>523849.0067481995</v>
       </c>
       <c r="AC10">
-        <v>86608.26137542725</v>
+        <v>526616.7136459351</v>
       </c>
       <c r="AD10">
-        <v>293.6136363875121</v>
+        <v>406.0227267444134</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>3351.863634705544</v>
       </c>
       <c r="AF10">
-        <v>291.5154857268849</v>
+        <v>2429.65176653862</v>
       </c>
       <c r="AG10">
-        <v>1519.168117509468</v>
+        <v>-3948.543184876442</v>
       </c>
       <c r="AH10">
-        <v>15401.51136183739</v>
+        <v>117324.6218932108</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>619961</v>
       </c>
       <c r="AA11">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="AB11">
-        <v>42298</v>
+        <v>469512</v>
       </c>
       <c r="AC11">
-        <v>44283</v>
+        <v>475690</v>
       </c>
       <c r="AD11">
-        <v>312</v>
+        <v>1108</v>
       </c>
       <c r="AE11">
-        <v>5</v>
+        <v>426</v>
       </c>
       <c r="AF11">
-        <v>780</v>
+        <v>2861</v>
       </c>
       <c r="AG11">
-        <v>1115</v>
+        <v>1471</v>
       </c>
       <c r="AH11">
-        <v>6453</v>
+        <v>113283</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>544466</v>
       </c>
       <c r="AA12">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="AB12">
-        <v>55006</v>
+        <v>553120</v>
       </c>
       <c r="AC12">
-        <v>52986</v>
+        <v>572372</v>
       </c>
       <c r="AD12">
-        <v>522</v>
+        <v>1399</v>
       </c>
       <c r="AE12">
-        <v>883</v>
+        <v>1340</v>
       </c>
       <c r="AF12">
-        <v>439</v>
+        <v>646</v>
       </c>
       <c r="AG12">
-        <v>3219</v>
+        <v>995</v>
       </c>
       <c r="AH12">
-        <v>4533</v>
+        <v>143419</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>524334</v>
       </c>
       <c r="AA13">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="AB13">
-        <v>61105</v>
+        <v>583150</v>
       </c>
       <c r="AC13">
-        <v>64896</v>
+        <v>675881</v>
       </c>
       <c r="AD13">
-        <v>697</v>
+        <v>1855</v>
       </c>
       <c r="AE13">
-        <v>55</v>
+        <v>1485</v>
       </c>
       <c r="AF13">
-        <v>486</v>
+        <v>182</v>
       </c>
       <c r="AG13">
-        <v>943</v>
+        <v>1161</v>
       </c>
       <c r="AH13">
-        <v>17936</v>
+        <v>136442</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>400355</v>
       </c>
       <c r="AA14">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="AB14">
-        <v>75157</v>
+        <v>674406</v>
       </c>
       <c r="AC14">
-        <v>79022</v>
+        <v>791615</v>
       </c>
       <c r="AD14">
-        <v>597</v>
+        <v>2551</v>
       </c>
       <c r="AE14">
-        <v>1643.079833984375</v>
+        <v>1366</v>
       </c>
       <c r="AF14">
-        <v>512</v>
+        <v>274</v>
       </c>
       <c r="AG14">
-        <v>914</v>
+        <v>10382</v>
       </c>
       <c r="AH14">
-        <v>14735</v>
+        <v>274618</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>582529</v>
       </c>
       <c r="AA15">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="AB15">
-        <v>80008</v>
+        <v>768874</v>
       </c>
       <c r="AC15">
-        <v>72952</v>
+        <v>795000</v>
       </c>
       <c r="AD15">
-        <v>1027</v>
+        <v>2978</v>
       </c>
       <c r="AE15">
-        <v>2008.539331972599</v>
+        <v>3514</v>
       </c>
       <c r="AF15">
-        <v>23883</v>
+        <v>536</v>
       </c>
       <c r="AG15">
-        <v>1299</v>
+        <v>3749</v>
       </c>
       <c r="AH15">
-        <v>34001</v>
+        <v>227208</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>496451</v>
       </c>
       <c r="AA16">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="AB16">
-        <v>63001</v>
+        <v>837638</v>
       </c>
       <c r="AC16">
-        <v>90790</v>
+        <v>895435</v>
       </c>
       <c r="AD16">
-        <v>898</v>
+        <v>4226</v>
       </c>
       <c r="AE16">
-        <v>1310</v>
+        <v>3879</v>
       </c>
       <c r="AF16">
-        <v>442</v>
+        <v>262</v>
       </c>
       <c r="AG16">
-        <v>2563</v>
+        <v>6449</v>
       </c>
       <c r="AH16">
-        <v>14560</v>
+        <v>180158</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>477.4579</v>
       </c>
       <c r="K17">
-        <v>13.59499842871446</v>
+        <v>13.59499842941295</v>
       </c>
       <c r="L17">
-        <v>1.078044710995528</v>
+        <v>1.078044710928225</v>
       </c>
       <c r="M17">
         <v>15.8830361362795</v>
@@ -2226,28 +2226,28 @@
         <v>387158</v>
       </c>
       <c r="AA17">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="AB17">
-        <v>88562.8</v>
+        <v>840078.3</v>
       </c>
       <c r="AC17">
-        <v>115358.5</v>
+        <v>924195</v>
       </c>
       <c r="AD17">
-        <v>1059</v>
+        <v>5165</v>
       </c>
       <c r="AE17">
-        <v>3887</v>
+        <v>1117</v>
       </c>
       <c r="AF17">
-        <v>-1578.573361560607</v>
+        <v>263</v>
       </c>
       <c r="AG17">
-        <v>2966</v>
+        <v>7777</v>
       </c>
       <c r="AH17">
-        <v>20228</v>
+        <v>159368</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>565.9</v>
       </c>
       <c r="K18">
-        <v>14.79295043786988</v>
+        <v>14.79295043868478</v>
       </c>
       <c r="L18">
-        <v>1.007224985469293</v>
+        <v>1.007224985392895</v>
       </c>
       <c r="M18">
         <v>13.8338649927969</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>0.8492527471898939</v>
+        <v>0.8492527471316862</v>
       </c>
       <c r="V18">
         <v>95.90000000000001</v>
       </c>
       <c r="W18">
-        <v>98.58169230783824</v>
+        <v>98.58169230740168</v>
       </c>
       <c r="X18">
         <v>4087</v>
@@ -2330,28 +2330,28 @@
         <v>374796</v>
       </c>
       <c r="AA18">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="AB18">
-        <v>92228.10000000001</v>
+        <v>812559.6</v>
       </c>
       <c r="AC18">
-        <v>109466.8</v>
+        <v>963621.7</v>
       </c>
       <c r="AD18">
-        <v>1182</v>
+        <v>6623</v>
       </c>
       <c r="AE18">
-        <v>1763</v>
+        <v>7844.8</v>
       </c>
       <c r="AF18">
-        <v>969.7903663671109</v>
+        <v>2.7</v>
       </c>
       <c r="AG18">
-        <v>2280.8</v>
+        <v>10497.5</v>
       </c>
       <c r="AH18">
-        <v>16839.5</v>
+        <v>124860.3</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>52.2</v>
       </c>
       <c r="E19">
-        <v>17621.60714314878</v>
+        <v>17621.60714267194</v>
       </c>
       <c r="F19">
         <v>23454.8508</v>
@@ -2386,10 +2386,10 @@
         <v>571.1</v>
       </c>
       <c r="K19">
-        <v>16.26751245488413</v>
+        <v>16.26751245593186</v>
       </c>
       <c r="L19">
-        <v>0.9297094213980017</v>
+        <v>0.9297094213106902</v>
       </c>
       <c r="M19">
         <v>10.151461327305</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>0.7105439559672959</v>
+        <v>0.7105439559018123</v>
       </c>
       <c r="V19">
         <v>95.7</v>
       </c>
       <c r="W19">
-        <v>101.4842197803373</v>
+        <v>101.4842197798425</v>
       </c>
       <c r="X19">
         <v>7604</v>
@@ -2434,28 +2434,28 @@
         <v>353812</v>
       </c>
       <c r="AA19">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="AB19">
-        <v>90050.7</v>
+        <v>977969</v>
       </c>
       <c r="AC19">
-        <v>119107.1</v>
+        <v>1215704.1</v>
       </c>
       <c r="AD19">
-        <v>1237</v>
+        <v>7170</v>
       </c>
       <c r="AE19">
-        <v>2993.8</v>
+        <v>5346.4</v>
       </c>
       <c r="AF19">
-        <v>9485.986166356901</v>
+        <v>-137.4253897964954</v>
       </c>
       <c r="AG19">
-        <v>1434.1</v>
+        <v>11809.7</v>
       </c>
       <c r="AH19">
-        <v>8895.1</v>
+        <v>201658.5</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>51.1</v>
       </c>
       <c r="E20">
-        <v>18971.26260532439</v>
+        <v>18971.26260480285</v>
       </c>
       <c r="F20">
         <v>24569.3758</v>
@@ -2490,10 +2490,10 @@
         <v>640.2527</v>
       </c>
       <c r="K20">
-        <v>18.01868448022287</v>
+        <v>18.0186844811542</v>
       </c>
       <c r="L20">
-        <v>0.8454980187780166</v>
+        <v>0.8454980186852481</v>
       </c>
       <c r="M20">
         <v>7.20184814390402</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0.551461861570715</v>
+        <v>0.5514618614906794</v>
       </c>
       <c r="V20">
         <v>97.59999999999999</v>
       </c>
       <c r="W20">
-        <v>104.4958471235877</v>
+        <v>104.4958471230348</v>
       </c>
       <c r="X20">
         <v>3902</v>
@@ -2538,28 +2538,28 @@
         <v>334084</v>
       </c>
       <c r="AA20">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="AB20">
-        <v>166646</v>
+        <v>1023769</v>
       </c>
       <c r="AC20">
-        <v>163084</v>
+        <v>1422072</v>
       </c>
       <c r="AD20">
-        <v>1426</v>
+        <v>8662</v>
       </c>
       <c r="AE20">
-        <v>749</v>
+        <v>608</v>
       </c>
       <c r="AF20">
-        <v>8738.007811352349</v>
+        <v>12</v>
       </c>
       <c r="AG20">
-        <v>1116.118876796845</v>
+        <v>5146</v>
       </c>
       <c r="AH20">
-        <v>6311</v>
+        <v>154126</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>50.7814</v>
       </c>
       <c r="E21">
-        <v>20365.26050449908</v>
+        <v>20365.26050387323</v>
       </c>
       <c r="F21">
         <v>27440.7</v>
@@ -2594,25 +2594,25 @@
         <v>678.501</v>
       </c>
       <c r="K21">
-        <v>20.04646651330404</v>
+        <v>20.04646651458461</v>
       </c>
       <c r="L21">
-        <v>0.7545907776129752</v>
+        <v>0.7545907775111118</v>
       </c>
       <c r="M21">
         <v>6.37818185065179</v>
       </c>
       <c r="N21">
-        <v>184.3343137204647</v>
+        <v>184.3343137260526</v>
       </c>
       <c r="O21">
-        <v>109.5002696099691</v>
+        <v>109.5002696067095</v>
       </c>
       <c r="P21">
         <v>14190.4</v>
       </c>
       <c r="Q21">
-        <v>97.85166300033006</v>
+        <v>101.3021533234967</v>
       </c>
       <c r="R21">
         <v>40.5</v>
@@ -2624,46 +2624,46 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>0.3720064640147029</v>
+        <v>0.3720064639128395</v>
       </c>
       <c r="V21">
         <v>98.09999999999999</v>
       </c>
       <c r="W21">
-        <v>107.6165743375896</v>
+        <v>107.6165743368911</v>
       </c>
       <c r="X21">
-        <v>4435.624374220573</v>
+        <v>4769.02577129663</v>
       </c>
       <c r="Y21">
-        <v>83.3067032968529</v>
+        <v>83.30670329692657</v>
       </c>
       <c r="Z21">
         <v>149132</v>
       </c>
       <c r="AA21">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="AB21">
-        <v>310805</v>
+        <v>1455984</v>
       </c>
       <c r="AC21">
-        <v>242260</v>
+        <v>1742894</v>
       </c>
       <c r="AD21">
-        <v>1684</v>
+        <v>8935</v>
       </c>
       <c r="AE21">
-        <v>1114.169552743435</v>
+        <v>572</v>
       </c>
       <c r="AF21">
-        <v>2604.312415386451</v>
+        <v>76</v>
       </c>
       <c r="AG21">
-        <v>1831</v>
+        <v>3444</v>
       </c>
       <c r="AH21">
-        <v>47021</v>
+        <v>141508</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>49.9783</v>
       </c>
       <c r="E22">
-        <v>21803.60084061325</v>
+        <v>21803.60083994269</v>
       </c>
       <c r="F22">
         <v>26239.7283</v>
@@ -2692,34 +2692,34 @@
         <v>51.72</v>
       </c>
       <c r="I22">
-        <v>3.277141382835907</v>
+        <v>3.277141382737682</v>
       </c>
       <c r="J22">
-        <v>832.5164924673736</v>
+        <v>832.5164924822748</v>
       </c>
       <c r="K22">
-        <v>22.35085855459329</v>
+        <v>22.35085855587386</v>
       </c>
       <c r="L22">
-        <v>0.6569876979046967</v>
+        <v>0.6569876977882814</v>
       </c>
       <c r="M22">
-        <v>3.156170048052445</v>
+        <v>3.156170051777735</v>
       </c>
       <c r="N22">
-        <v>199.6618678974919</v>
+        <v>199.6618679035455</v>
       </c>
       <c r="O22">
-        <v>128.2582391654141</v>
+        <v>128.2582391612232</v>
       </c>
       <c r="P22">
-        <v>13812.91107847087</v>
+        <v>15019.58306523164</v>
       </c>
       <c r="Q22">
-        <v>97.62894107399818</v>
+        <v>98.17199042635401</v>
       </c>
       <c r="R22">
-        <v>46.53897058381699</v>
+        <v>46.53897059429437</v>
       </c>
       <c r="S22">
         <v>384751</v>
@@ -2728,46 +2728,46 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>0.1721777632847079</v>
+        <v>0.1721777631755685</v>
       </c>
       <c r="V22">
-        <v>93.98350877303164</v>
+        <v>93.98350877070334</v>
       </c>
       <c r="W22">
-        <v>110.8464014222263</v>
+        <v>110.8464014215278</v>
       </c>
       <c r="X22">
-        <v>4335.609394992883</v>
+        <v>1654.105298861045</v>
       </c>
       <c r="Y22">
-        <v>84.55096703317849</v>
+        <v>84.55096703327854</v>
       </c>
       <c r="Z22">
-        <v>48954.69105148315</v>
+        <v>48954.69123077393</v>
       </c>
       <c r="AA22">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AB22">
-        <v>411215.4</v>
+        <v>1463185.4</v>
       </c>
       <c r="AC22">
-        <v>341802.9</v>
+        <v>1712261.4</v>
       </c>
       <c r="AD22">
-        <v>1784</v>
+        <v>10713</v>
       </c>
       <c r="AE22">
-        <v>450.5867949724197</v>
+        <v>21885</v>
       </c>
       <c r="AF22">
-        <v>7684.034902082063</v>
+        <v>71</v>
       </c>
       <c r="AG22">
-        <v>316.5</v>
+        <v>1958.5</v>
       </c>
       <c r="AH22">
-        <v>55062.7</v>
+        <v>158437.4</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>51.8</v>
       </c>
       <c r="E23">
-        <v>23286.28361369669</v>
+        <v>23286.28361295164</v>
       </c>
       <c r="F23">
-        <v>29717.92590548098</v>
+        <v>29717.92590531707</v>
       </c>
       <c r="G23">
         <v>-0.39</v>
       </c>
       <c r="H23">
-        <v>43.02658104386687</v>
+        <v>41.98871512034366</v>
       </c>
       <c r="I23">
-        <v>3.160020639785216</v>
+        <v>3.160020639681534</v>
       </c>
       <c r="J23">
-        <v>934.86317541264</v>
+        <v>934.8631754275411</v>
       </c>
       <c r="K23">
-        <v>24.93186060385779</v>
+        <v>24.93186060537118</v>
       </c>
       <c r="L23">
-        <v>0.552688779645905</v>
+        <v>0.5526887795203947</v>
       </c>
       <c r="M23">
-        <v>1.556456466671079</v>
+        <v>1.556456471094862</v>
       </c>
       <c r="N23">
-        <v>216.7528379680589</v>
+        <v>216.7528379736468</v>
       </c>
       <c r="O23">
-        <v>148.4683823534288</v>
+        <v>148.4683823487721</v>
       </c>
       <c r="P23">
-        <v>13466.99011884805</v>
+        <v>15500.52138384767</v>
       </c>
       <c r="Q23">
-        <v>100.4368677860482</v>
+        <v>97.11043405967119</v>
       </c>
       <c r="R23">
-        <v>53.33838234702125</v>
+        <v>53.33838235912845</v>
       </c>
       <c r="S23">
-        <v>423147.14909935</v>
+        <v>423147.1491441727</v>
       </c>
       <c r="T23">
         <v>0</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>-0.04802424075023737</v>
       </c>
       <c r="V23">
-        <v>92.36354386142921</v>
+        <v>92.36354385863524</v>
       </c>
       <c r="W23">
-        <v>114.1853283776436</v>
+        <v>114.1853283768869</v>
       </c>
       <c r="X23">
-        <v>2652.592244427455</v>
+        <v>1862.302318423085</v>
       </c>
       <c r="Y23">
-        <v>85.79907692335837</v>
+        <v>85.79907692348661</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-68268.19989395142</v>
       </c>
       <c r="AA23">
-        <v>82.54545454699837</v>
+        <v>137.9441949536271</v>
       </c>
       <c r="AB23">
-        <v>453123.8274459839</v>
+        <v>1605295.757019043</v>
       </c>
       <c r="AC23">
-        <v>359246.4113960266</v>
+        <v>1981861.759216309</v>
       </c>
       <c r="AD23">
-        <v>1910.840909123421</v>
+        <v>12046.79545539618</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>14857.79091405869</v>
       </c>
       <c r="AF23">
-        <v>5504.431491010486</v>
+        <v>581.1959961354733</v>
       </c>
       <c r="AG23">
-        <v>2052.410505388399</v>
+        <v>-129.8840925693512</v>
       </c>
       <c r="AH23">
-        <v>49979.13409948349</v>
+        <v>192337.2783087327</v>
       </c>
     </row>
   </sheetData>
